--- a/mbs-EP-v.1.0.3 - changable version/Excel Files/mcpherson_2d/mcpherson_2d_si.xlsx
+++ b/mbs-EP-v.1.0.3 - changable version/Excel Files/mcpherson_2d/mcpherson_2d_si.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.2\Excel Files\mcpherson_2d\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tiago_Serralha\Desktop\Thesis-Project\mbs-EP-v.1.0.3 - changable version\Excel Files\mcpherson_2d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{453FCB7F-C94C-4FCB-9277-4181527A15A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEE4F82F-EDD5-46AF-B0A9-2E6B16F1BE86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12600" yWindow="4215" windowWidth="16200" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SimParam" sheetId="4" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="265">
   <si>
     <t>Mass</t>
   </si>
@@ -1311,12 +1311,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1332,61 +1389,13 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1395,13 +1404,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1410,7 +1413,13 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1422,21 +1431,69 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1444,63 +1501,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1942,7 +1942,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE954C49-6E73-4D49-8054-42AF7A10140C}">
   <dimension ref="B2:Q39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -1962,44 +1962,44 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B2" s="72" t="s">
+      <c r="B2" s="91" t="s">
         <v>68</v>
       </c>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="74"/>
-      <c r="J2" s="68" t="s">
+      <c r="C2" s="92"/>
+      <c r="D2" s="92"/>
+      <c r="E2" s="93"/>
+      <c r="J2" s="88" t="s">
         <v>152</v>
       </c>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
+      <c r="K2" s="88"/>
+      <c r="L2" s="88"/>
+      <c r="M2" s="88"/>
+      <c r="N2" s="88"/>
+      <c r="O2" s="88"/>
+      <c r="P2" s="88"/>
+      <c r="Q2" s="88"/>
     </row>
     <row r="3" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="71"/>
+      <c r="C3" s="90"/>
       <c r="D3" s="39">
         <v>10</v>
       </c>
       <c r="E3" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="75" t="s">
+      <c r="J3" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="K3" s="76"/>
-      <c r="L3" s="89"/>
-      <c r="M3" s="75" t="s">
+      <c r="K3" s="83"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="82" t="s">
         <v>127</v>
       </c>
-      <c r="N3" s="76"/>
-      <c r="O3" s="86"/>
+      <c r="N3" s="83"/>
+      <c r="O3" s="80"/>
       <c r="P3" s="35" t="s">
         <v>157</v>
       </c>
@@ -2008,10 +2008,10 @@
       </c>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B4" s="70" t="s">
+      <c r="B4" s="89" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="71"/>
+      <c r="C4" s="90"/>
       <c r="D4" s="39">
         <v>1E-3</v>
       </c>
@@ -2024,14 +2024,14 @@
       <c r="K4" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="L4" s="90"/>
+      <c r="L4" s="86"/>
       <c r="M4" s="34" t="s">
         <v>128</v>
       </c>
       <c r="N4" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="O4" s="87"/>
+      <c r="O4" s="81"/>
       <c r="P4" s="35" t="s">
         <v>158</v>
       </c>
@@ -2040,10 +2040,10 @@
       </c>
     </row>
     <row r="5" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="C5" s="71"/>
+      <c r="C5" s="90"/>
       <c r="D5" s="39" t="s">
         <v>81</v>
       </c>
@@ -2056,14 +2056,14 @@
       <c r="K5" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="L5" s="90"/>
+      <c r="L5" s="86"/>
       <c r="M5" s="35" t="s">
         <v>5</v>
       </c>
       <c r="N5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="O5" s="87"/>
+      <c r="O5" s="81"/>
       <c r="P5" s="35" t="s">
         <v>159</v>
       </c>
@@ -2072,10 +2072,10 @@
       </c>
     </row>
     <row r="6" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B6" s="70" t="s">
+      <c r="B6" s="89" t="s">
         <v>78</v>
       </c>
-      <c r="C6" s="71"/>
+      <c r="C6" s="90"/>
       <c r="D6" s="39" t="s">
         <v>3</v>
       </c>
@@ -2088,14 +2088,14 @@
       <c r="K6" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="L6" s="90"/>
+      <c r="L6" s="86"/>
       <c r="M6" s="35" t="s">
         <v>130</v>
       </c>
       <c r="N6" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="O6" s="87"/>
+      <c r="O6" s="81"/>
       <c r="P6" s="35" t="s">
         <v>163</v>
       </c>
@@ -2104,10 +2104,10 @@
       </c>
     </row>
     <row r="7" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="89" t="s">
         <v>80</v>
       </c>
-      <c r="C7" s="71"/>
+      <c r="C7" s="90"/>
       <c r="D7" s="66">
         <v>-9.8064999999999998</v>
       </c>
@@ -2120,14 +2120,14 @@
       <c r="K7" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="L7" s="90"/>
+      <c r="L7" s="86"/>
       <c r="M7" s="35" t="s">
         <v>10</v>
       </c>
       <c r="N7" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="O7" s="87"/>
+      <c r="O7" s="81"/>
       <c r="P7" s="35" t="s">
         <v>162</v>
       </c>
@@ -2136,10 +2136,10 @@
       </c>
     </row>
     <row r="8" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B8" s="70" t="s">
+      <c r="B8" s="89" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="71"/>
+      <c r="C8" s="90"/>
       <c r="D8" s="66" t="s">
         <v>261</v>
       </c>
@@ -2152,14 +2152,14 @@
       <c r="K8" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="L8" s="90"/>
+      <c r="L8" s="86"/>
       <c r="M8" s="35" t="s">
         <v>12</v>
       </c>
       <c r="N8" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="O8" s="87"/>
+      <c r="O8" s="81"/>
       <c r="P8" s="35" t="s">
         <v>166</v>
       </c>
@@ -2168,10 +2168,10 @@
       </c>
     </row>
     <row r="9" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="71"/>
+      <c r="C9" s="90"/>
       <c r="D9" s="39"/>
       <c r="E9" s="40" t="s">
         <v>121</v>
@@ -2182,14 +2182,14 @@
       <c r="K9" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="L9" s="90"/>
+      <c r="L9" s="86"/>
       <c r="M9" s="35" t="s">
         <v>13</v>
       </c>
       <c r="N9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="O9" s="87"/>
+      <c r="O9" s="81"/>
       <c r="P9" s="35" t="s">
         <v>167</v>
       </c>
@@ -2204,14 +2204,14 @@
       <c r="K10" s="26" t="s">
         <v>110</v>
       </c>
-      <c r="L10" s="90"/>
+      <c r="L10" s="86"/>
       <c r="M10" s="35" t="s">
         <v>14</v>
       </c>
       <c r="N10" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="O10" s="87"/>
+      <c r="O10" s="81"/>
       <c r="P10" s="38" t="s">
         <v>168</v>
       </c>
@@ -2222,14 +2222,14 @@
     <row r="11" spans="2:17" x14ac:dyDescent="0.25">
       <c r="J11" s="42"/>
       <c r="K11" s="43"/>
-      <c r="L11" s="90"/>
+      <c r="L11" s="86"/>
       <c r="M11" s="35" t="s">
         <v>132</v>
       </c>
       <c r="N11" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="O11" s="87"/>
+      <c r="O11" s="81"/>
       <c r="P11" s="38" t="s">
         <v>169</v>
       </c>
@@ -2238,25 +2238,25 @@
       </c>
     </row>
     <row r="12" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B12" s="68" t="s">
+      <c r="B12" s="88" t="s">
         <v>136</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="88"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
       <c r="J12" s="44"/>
       <c r="K12" s="45"/>
-      <c r="L12" s="90"/>
+      <c r="L12" s="86"/>
       <c r="M12" s="35" t="s">
         <v>133</v>
       </c>
       <c r="N12" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="O12" s="87"/>
+      <c r="O12" s="81"/>
       <c r="P12" s="35" t="s">
         <v>174</v>
       </c>
@@ -2273,19 +2273,19 @@
       <c r="E13" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F13" s="93"/>
-      <c r="G13" s="93"/>
-      <c r="H13" s="93"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
       <c r="J13" s="44"/>
       <c r="K13" s="45"/>
-      <c r="L13" s="90"/>
+      <c r="L13" s="86"/>
       <c r="M13" s="35" t="s">
         <v>19</v>
       </c>
       <c r="N13" s="35" t="s">
         <v>19</v>
       </c>
-      <c r="O13" s="87"/>
+      <c r="O13" s="81"/>
       <c r="P13" s="38" t="s">
         <v>175</v>
       </c>
@@ -2302,19 +2302,19 @@
       <c r="E14" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F14" s="93"/>
-      <c r="G14" s="93"/>
-      <c r="H14" s="93"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
       <c r="J14" s="46"/>
       <c r="K14" s="47"/>
-      <c r="L14" s="90"/>
+      <c r="L14" s="86"/>
       <c r="M14" s="35" t="s">
         <v>134</v>
       </c>
       <c r="N14" s="35" t="s">
         <v>134</v>
       </c>
-      <c r="O14" s="87"/>
+      <c r="O14" s="81"/>
       <c r="P14" s="38" t="s">
         <v>176</v>
       </c>
@@ -2331,21 +2331,21 @@
       <c r="E15" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F15" s="93"/>
-      <c r="G15" s="93"/>
-      <c r="H15" s="93"/>
-      <c r="J15" s="75" t="s">
+      <c r="F15" s="70"/>
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="J15" s="82" t="s">
         <v>93</v>
       </c>
-      <c r="K15" s="76"/>
-      <c r="L15" s="90"/>
+      <c r="K15" s="83"/>
+      <c r="L15" s="86"/>
       <c r="M15" s="35" t="s">
         <v>15</v>
       </c>
       <c r="N15" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="O15" s="87"/>
+      <c r="O15" s="81"/>
       <c r="P15" s="38" t="s">
         <v>177</v>
       </c>
@@ -2362,23 +2362,23 @@
       <c r="E16" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F16" s="93"/>
-      <c r="G16" s="93"/>
-      <c r="H16" s="93"/>
+      <c r="F16" s="70"/>
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
       <c r="J16" s="35" t="s">
         <v>94</v>
       </c>
       <c r="K16" s="35" t="s">
         <v>105</v>
       </c>
-      <c r="L16" s="90"/>
+      <c r="L16" s="86"/>
       <c r="M16" s="35" t="s">
         <v>135</v>
       </c>
       <c r="N16" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="O16" s="87"/>
+      <c r="O16" s="81"/>
       <c r="P16" s="35" t="s">
         <v>182</v>
       </c>
@@ -2395,21 +2395,21 @@
       <c r="E17" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F17" s="93"/>
-      <c r="G17" s="93"/>
-      <c r="H17" s="93"/>
+      <c r="F17" s="70"/>
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
       <c r="J17" s="35" t="s">
         <v>0</v>
       </c>
       <c r="K17" s="35" t="s">
         <v>99</v>
       </c>
-      <c r="L17" s="90"/>
-      <c r="M17" s="75" t="s">
+      <c r="L17" s="86"/>
+      <c r="M17" s="82" t="s">
         <v>147</v>
       </c>
-      <c r="N17" s="76"/>
-      <c r="O17" s="87"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="81"/>
       <c r="P17" s="38" t="s">
         <v>183</v>
       </c>
@@ -2426,23 +2426,23 @@
       <c r="E18" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F18" s="93"/>
-      <c r="G18" s="93"/>
-      <c r="H18" s="93"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
       <c r="J18" s="35" t="s">
         <v>95</v>
       </c>
       <c r="K18" s="35" t="s">
         <v>100</v>
       </c>
-      <c r="L18" s="90"/>
+      <c r="L18" s="86"/>
       <c r="M18" s="41" t="s">
         <v>156</v>
       </c>
       <c r="N18" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="O18" s="87"/>
+      <c r="O18" s="81"/>
       <c r="P18" s="38" t="s">
         <v>184</v>
       </c>
@@ -2459,23 +2459,23 @@
       <c r="E19" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F19" s="93"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="93"/>
+      <c r="F19" s="70"/>
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
       <c r="J19" s="35" t="s">
         <v>96</v>
       </c>
       <c r="K19" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="L19" s="90"/>
+      <c r="L19" s="86"/>
       <c r="M19" s="36" t="s">
         <v>148</v>
       </c>
       <c r="N19" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="O19" s="87"/>
+      <c r="O19" s="81"/>
       <c r="P19" s="38" t="s">
         <v>185</v>
       </c>
@@ -2494,23 +2494,23 @@
       <c r="E20" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F20" s="93"/>
-      <c r="G20" s="93"/>
-      <c r="H20" s="93"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
       <c r="J20" s="35" t="s">
         <v>102</v>
       </c>
       <c r="K20" s="35" t="s">
         <v>106</v>
       </c>
-      <c r="L20" s="90"/>
+      <c r="L20" s="86"/>
       <c r="M20" s="36" t="s">
         <v>149</v>
       </c>
       <c r="N20" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="O20" s="87"/>
+      <c r="O20" s="81"/>
       <c r="P20" s="35" t="s">
         <v>190</v>
       </c>
@@ -2527,23 +2527,23 @@
       <c r="E21" s="56" t="s">
         <v>121</v>
       </c>
-      <c r="F21" s="93"/>
-      <c r="G21" s="93"/>
-      <c r="H21" s="93"/>
+      <c r="F21" s="70"/>
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
       <c r="J21" s="35" t="s">
         <v>97</v>
       </c>
       <c r="K21" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="L21" s="90"/>
+      <c r="L21" s="86"/>
       <c r="M21" s="36" t="s">
         <v>150</v>
       </c>
       <c r="N21" s="36" t="s">
         <v>154</v>
       </c>
-      <c r="O21" s="87"/>
+      <c r="O21" s="81"/>
       <c r="P21" s="38" t="s">
         <v>191</v>
       </c>
@@ -2552,20 +2552,20 @@
       </c>
     </row>
     <row r="22" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B22" s="92" t="s">
+      <c r="B22" s="68" t="s">
         <v>138</v>
       </c>
-      <c r="C22" s="92"/>
+      <c r="C22" s="68"/>
       <c r="D22" s="56">
         <v>2</v>
       </c>
-      <c r="E22" s="88" t="s">
+      <c r="E22" s="84" t="s">
         <v>144</v>
       </c>
-      <c r="F22" s="88" t="s">
+      <c r="F22" s="84" t="s">
         <v>145</v>
       </c>
-      <c r="G22" s="88"/>
+      <c r="G22" s="84"/>
       <c r="H22" s="69"/>
       <c r="J22" s="26" t="s">
         <v>108</v>
@@ -2573,14 +2573,14 @@
       <c r="K22" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="L22" s="91"/>
+      <c r="L22" s="87"/>
       <c r="M22" s="36" t="s">
         <v>151</v>
       </c>
       <c r="N22" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="O22" s="87"/>
+      <c r="O22" s="81"/>
       <c r="P22" s="38" t="s">
         <v>192</v>
       </c>
@@ -2589,21 +2589,21 @@
       </c>
     </row>
     <row r="23" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B23" s="92"/>
-      <c r="C23" s="92"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="68"/>
       <c r="D23" s="56">
         <v>4</v>
       </c>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
+      <c r="E23" s="84"/>
+      <c r="F23" s="84"/>
+      <c r="G23" s="84"/>
       <c r="H23" s="69"/>
-      <c r="J23" s="77"/>
-      <c r="K23" s="78"/>
-      <c r="L23" s="78"/>
-      <c r="M23" s="78"/>
-      <c r="N23" s="79"/>
-      <c r="O23" s="87"/>
+      <c r="J23" s="71"/>
+      <c r="K23" s="72"/>
+      <c r="L23" s="72"/>
+      <c r="M23" s="72"/>
+      <c r="N23" s="73"/>
+      <c r="O23" s="81"/>
       <c r="P23" s="38" t="s">
         <v>193</v>
       </c>
@@ -2612,19 +2612,19 @@
       </c>
     </row>
     <row r="24" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B24" s="92"/>
-      <c r="C24" s="92"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
       <c r="D24" s="56"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="84"/>
       <c r="H24" s="69"/>
-      <c r="J24" s="80"/>
-      <c r="K24" s="81"/>
-      <c r="L24" s="81"/>
-      <c r="M24" s="81"/>
-      <c r="N24" s="82"/>
-      <c r="O24" s="87"/>
+      <c r="J24" s="74"/>
+      <c r="K24" s="75"/>
+      <c r="L24" s="75"/>
+      <c r="M24" s="75"/>
+      <c r="N24" s="76"/>
+      <c r="O24" s="81"/>
       <c r="P24" s="26" t="s">
         <v>199</v>
       </c>
@@ -2633,19 +2633,19 @@
       </c>
     </row>
     <row r="25" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
+      <c r="B25" s="68"/>
+      <c r="C25" s="68"/>
       <c r="D25" s="56"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="84"/>
       <c r="H25" s="69"/>
-      <c r="J25" s="80"/>
-      <c r="K25" s="81"/>
-      <c r="L25" s="81"/>
-      <c r="M25" s="81"/>
-      <c r="N25" s="82"/>
-      <c r="O25" s="87"/>
+      <c r="J25" s="74"/>
+      <c r="K25" s="75"/>
+      <c r="L25" s="75"/>
+      <c r="M25" s="75"/>
+      <c r="N25" s="76"/>
+      <c r="O25" s="81"/>
       <c r="P25" s="26" t="s">
         <v>203</v>
       </c>
@@ -2654,19 +2654,19 @@
       </c>
     </row>
     <row r="26" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B26" s="92"/>
-      <c r="C26" s="92"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="68"/>
       <c r="D26" s="56"/>
-      <c r="E26" s="88"/>
-      <c r="F26" s="88"/>
-      <c r="G26" s="88"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
       <c r="H26" s="69"/>
-      <c r="J26" s="80"/>
-      <c r="K26" s="81"/>
-      <c r="L26" s="81"/>
-      <c r="M26" s="81"/>
-      <c r="N26" s="82"/>
-      <c r="O26" s="87"/>
+      <c r="J26" s="74"/>
+      <c r="K26" s="75"/>
+      <c r="L26" s="75"/>
+      <c r="M26" s="75"/>
+      <c r="N26" s="76"/>
+      <c r="O26" s="81"/>
       <c r="P26" s="26" t="s">
         <v>204</v>
       </c>
@@ -2675,19 +2675,19 @@
       </c>
     </row>
     <row r="27" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B27" s="92"/>
-      <c r="C27" s="92"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="56"/>
-      <c r="E27" s="88"/>
-      <c r="F27" s="88"/>
-      <c r="G27" s="88"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="84"/>
       <c r="H27" s="69"/>
-      <c r="J27" s="80"/>
-      <c r="K27" s="81"/>
-      <c r="L27" s="81"/>
-      <c r="M27" s="81"/>
-      <c r="N27" s="82"/>
-      <c r="O27" s="87"/>
+      <c r="J27" s="74"/>
+      <c r="K27" s="75"/>
+      <c r="L27" s="75"/>
+      <c r="M27" s="75"/>
+      <c r="N27" s="76"/>
+      <c r="O27" s="81"/>
       <c r="P27" s="26" t="s">
         <v>205</v>
       </c>
@@ -2696,19 +2696,19 @@
       </c>
     </row>
     <row r="28" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B28" s="92"/>
-      <c r="C28" s="92"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="68"/>
       <c r="D28" s="56"/>
-      <c r="E28" s="88"/>
-      <c r="F28" s="88"/>
-      <c r="G28" s="88"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="84"/>
       <c r="H28" s="69"/>
-      <c r="J28" s="80"/>
-      <c r="K28" s="81"/>
-      <c r="L28" s="81"/>
-      <c r="M28" s="81"/>
-      <c r="N28" s="82"/>
-      <c r="O28" s="87"/>
+      <c r="J28" s="74"/>
+      <c r="K28" s="75"/>
+      <c r="L28" s="75"/>
+      <c r="M28" s="75"/>
+      <c r="N28" s="76"/>
+      <c r="O28" s="81"/>
       <c r="P28" s="26" t="s">
         <v>207</v>
       </c>
@@ -2717,19 +2717,19 @@
       </c>
     </row>
     <row r="29" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="B29" s="92"/>
-      <c r="C29" s="92"/>
+      <c r="B29" s="68"/>
+      <c r="C29" s="68"/>
       <c r="D29" s="56"/>
-      <c r="E29" s="88"/>
-      <c r="F29" s="88"/>
-      <c r="G29" s="88"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="84"/>
       <c r="H29" s="69"/>
-      <c r="J29" s="80"/>
-      <c r="K29" s="81"/>
-      <c r="L29" s="81"/>
-      <c r="M29" s="81"/>
-      <c r="N29" s="82"/>
-      <c r="O29" s="87"/>
+      <c r="J29" s="74"/>
+      <c r="K29" s="75"/>
+      <c r="L29" s="75"/>
+      <c r="M29" s="75"/>
+      <c r="N29" s="76"/>
+      <c r="O29" s="81"/>
       <c r="P29" s="26" t="s">
         <v>206</v>
       </c>
@@ -2738,12 +2738,12 @@
       </c>
     </row>
     <row r="30" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J30" s="80"/>
-      <c r="K30" s="81"/>
-      <c r="L30" s="81"/>
-      <c r="M30" s="81"/>
-      <c r="N30" s="82"/>
-      <c r="O30" s="87"/>
+      <c r="J30" s="74"/>
+      <c r="K30" s="75"/>
+      <c r="L30" s="75"/>
+      <c r="M30" s="75"/>
+      <c r="N30" s="76"/>
+      <c r="O30" s="81"/>
       <c r="P30" s="26" t="s">
         <v>208</v>
       </c>
@@ -2752,12 +2752,12 @@
       </c>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J31" s="80"/>
-      <c r="K31" s="81"/>
-      <c r="L31" s="81"/>
-      <c r="M31" s="81"/>
-      <c r="N31" s="82"/>
-      <c r="O31" s="87"/>
+      <c r="J31" s="74"/>
+      <c r="K31" s="75"/>
+      <c r="L31" s="75"/>
+      <c r="M31" s="75"/>
+      <c r="N31" s="76"/>
+      <c r="O31" s="81"/>
       <c r="P31" s="26" t="s">
         <v>209</v>
       </c>
@@ -2766,12 +2766,12 @@
       </c>
     </row>
     <row r="32" spans="2:17" x14ac:dyDescent="0.25">
-      <c r="J32" s="80"/>
-      <c r="K32" s="81"/>
-      <c r="L32" s="81"/>
-      <c r="M32" s="81"/>
-      <c r="N32" s="82"/>
-      <c r="O32" s="87"/>
+      <c r="J32" s="74"/>
+      <c r="K32" s="75"/>
+      <c r="L32" s="75"/>
+      <c r="M32" s="75"/>
+      <c r="N32" s="76"/>
+      <c r="O32" s="81"/>
       <c r="P32" s="26" t="s">
         <v>210</v>
       </c>
@@ -2780,12 +2780,12 @@
       </c>
     </row>
     <row r="33" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J33" s="80"/>
-      <c r="K33" s="81"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="81"/>
-      <c r="N33" s="82"/>
-      <c r="O33" s="87"/>
+      <c r="J33" s="74"/>
+      <c r="K33" s="75"/>
+      <c r="L33" s="75"/>
+      <c r="M33" s="75"/>
+      <c r="N33" s="76"/>
+      <c r="O33" s="81"/>
       <c r="P33" s="26" t="s">
         <v>211</v>
       </c>
@@ -2794,12 +2794,12 @@
       </c>
     </row>
     <row r="34" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J34" s="80"/>
-      <c r="K34" s="81"/>
-      <c r="L34" s="81"/>
-      <c r="M34" s="81"/>
-      <c r="N34" s="82"/>
-      <c r="O34" s="87"/>
+      <c r="J34" s="74"/>
+      <c r="K34" s="75"/>
+      <c r="L34" s="75"/>
+      <c r="M34" s="75"/>
+      <c r="N34" s="76"/>
+      <c r="O34" s="81"/>
       <c r="P34" s="26" t="s">
         <v>212</v>
       </c>
@@ -2808,12 +2808,12 @@
       </c>
     </row>
     <row r="35" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J35" s="80"/>
-      <c r="K35" s="81"/>
-      <c r="L35" s="81"/>
-      <c r="M35" s="81"/>
-      <c r="N35" s="82"/>
-      <c r="O35" s="87"/>
+      <c r="J35" s="74"/>
+      <c r="K35" s="75"/>
+      <c r="L35" s="75"/>
+      <c r="M35" s="75"/>
+      <c r="N35" s="76"/>
+      <c r="O35" s="81"/>
       <c r="P35" s="26" t="s">
         <v>213</v>
       </c>
@@ -2822,12 +2822,12 @@
       </c>
     </row>
     <row r="36" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J36" s="80"/>
-      <c r="K36" s="81"/>
-      <c r="L36" s="81"/>
-      <c r="M36" s="81"/>
-      <c r="N36" s="82"/>
-      <c r="O36" s="87"/>
+      <c r="J36" s="74"/>
+      <c r="K36" s="75"/>
+      <c r="L36" s="75"/>
+      <c r="M36" s="75"/>
+      <c r="N36" s="76"/>
+      <c r="O36" s="81"/>
       <c r="P36" s="26" t="s">
         <v>222</v>
       </c>
@@ -2836,12 +2836,12 @@
       </c>
     </row>
     <row r="37" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J37" s="80"/>
-      <c r="K37" s="81"/>
-      <c r="L37" s="81"/>
-      <c r="M37" s="81"/>
-      <c r="N37" s="82"/>
-      <c r="O37" s="87"/>
+      <c r="J37" s="74"/>
+      <c r="K37" s="75"/>
+      <c r="L37" s="75"/>
+      <c r="M37" s="75"/>
+      <c r="N37" s="76"/>
+      <c r="O37" s="81"/>
       <c r="P37" s="26" t="s">
         <v>223</v>
       </c>
@@ -2850,12 +2850,12 @@
       </c>
     </row>
     <row r="38" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J38" s="83"/>
-      <c r="K38" s="84"/>
-      <c r="L38" s="84"/>
-      <c r="M38" s="84"/>
-      <c r="N38" s="85"/>
-      <c r="O38" s="87"/>
+      <c r="J38" s="77"/>
+      <c r="K38" s="78"/>
+      <c r="L38" s="78"/>
+      <c r="M38" s="78"/>
+      <c r="N38" s="79"/>
+      <c r="O38" s="81"/>
       <c r="P38" s="26" t="s">
         <v>224</v>
       </c>
@@ -2873,23 +2873,6 @@
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="B22:C29"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="F13:H21"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="J23:N38"/>
-    <mergeCell ref="O3:O38"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="H22:H29"/>
-    <mergeCell ref="E22:E29"/>
-    <mergeCell ref="F22:G29"/>
-    <mergeCell ref="L3:L22"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="M17:N17"/>
     <mergeCell ref="J2:Q2"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
@@ -2904,6 +2887,23 @@
     <mergeCell ref="J3:K3"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
+    <mergeCell ref="J23:N38"/>
+    <mergeCell ref="O3:O38"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="H22:H29"/>
+    <mergeCell ref="E22:E29"/>
+    <mergeCell ref="F22:G29"/>
+    <mergeCell ref="L3:L22"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="B22:C29"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="F13:H21"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2935,8 +2935,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A1" s="93"/>
-      <c r="B1" s="93"/>
+      <c r="A1" s="70"/>
+      <c r="B1" s="70"/>
       <c r="C1" s="69" t="s">
         <v>30</v>
       </c>
@@ -2984,23 +2984,23 @@
       <c r="AK1" s="69"/>
     </row>
     <row r="2" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="A2" s="93"/>
-      <c r="B2" s="93"/>
-      <c r="C2" s="95" t="s">
+      <c r="A2" s="70"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="98" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95" t="s">
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="95"/>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95" t="s">
+      <c r="G2" s="98"/>
+      <c r="H2" s="98"/>
+      <c r="I2" s="98" t="s">
         <v>29</v>
       </c>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
+      <c r="J2" s="98"/>
+      <c r="K2" s="98"/>
       <c r="L2" s="69" t="s">
         <v>33</v>
       </c>
@@ -3011,27 +3011,27 @@
       </c>
       <c r="P2" s="69"/>
       <c r="Q2" s="69"/>
-      <c r="R2" s="88" t="s">
+      <c r="R2" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="S2" s="94" t="s">
-        <v>0</v>
-      </c>
-      <c r="T2" s="95" t="s">
+      <c r="S2" s="97" t="s">
+        <v>0</v>
+      </c>
+      <c r="T2" s="98" t="s">
         <v>92</v>
       </c>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
+      <c r="U2" s="98"/>
+      <c r="V2" s="98"/>
       <c r="W2" s="69" t="s">
         <v>90</v>
       </c>
       <c r="X2" s="69"/>
       <c r="Y2" s="69"/>
-      <c r="Z2" s="96" t="s">
+      <c r="Z2" s="94" t="s">
         <v>91</v>
       </c>
-      <c r="AA2" s="97"/>
-      <c r="AB2" s="98"/>
+      <c r="AA2" s="95"/>
+      <c r="AB2" s="96"/>
       <c r="AC2" s="69" t="s">
         <v>88</v>
       </c>
@@ -3100,8 +3100,8 @@
       <c r="Q3" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="R3" s="88"/>
-      <c r="S3" s="94"/>
+      <c r="R3" s="84"/>
+      <c r="S3" s="97"/>
       <c r="T3" s="16" t="s">
         <v>61</v>
       </c>
@@ -6665,12 +6665,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="W2:Y2"/>
-    <mergeCell ref="AC2:AE2"/>
-    <mergeCell ref="AF2:AH2"/>
-    <mergeCell ref="AI2:AK2"/>
-    <mergeCell ref="S1:AK1"/>
-    <mergeCell ref="Z2:AB2"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:V2"/>
@@ -6684,6 +6678,12 @@
     <mergeCell ref="L2:N2"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="C1:E1"/>
+    <mergeCell ref="W2:Y2"/>
+    <mergeCell ref="AC2:AE2"/>
+    <mergeCell ref="AF2:AH2"/>
+    <mergeCell ref="AI2:AK2"/>
+    <mergeCell ref="S1:AK1"/>
+    <mergeCell ref="Z2:AB2"/>
   </mergeCells>
   <pageMargins left="0.51180555555555496" right="0.51180555555555496" top="0.78749999999999998" bottom="0.78749999999999998" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -6716,16 +6716,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="D1" s="99"/>
-      <c r="E1" s="99"/>
-      <c r="F1" s="99"/>
-      <c r="G1" s="99"/>
-      <c r="H1" s="99"/>
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="D1" s="100"/>
+      <c r="E1" s="100"/>
+      <c r="F1" s="100"/>
+      <c r="G1" s="100"/>
+      <c r="H1" s="100"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
@@ -6756,11 +6756,11 @@
       <c r="E2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="100" t="s">
+      <c r="F2" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="G2" s="100"/>
-      <c r="H2" s="100"/>
+      <c r="G2" s="101"/>
+      <c r="H2" s="101"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
@@ -6830,19 +6830,19 @@
       <c r="X4" s="10"/>
     </row>
     <row r="5" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A5" s="99" t="s">
+      <c r="A5" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="99"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="99"/>
-      <c r="H5" s="99"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="99"/>
-      <c r="K5" s="99"/>
+      <c r="B5" s="100"/>
+      <c r="C5" s="100"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="100"/>
+      <c r="F5" s="100"/>
+      <c r="G5" s="100"/>
+      <c r="H5" s="100"/>
+      <c r="I5" s="100"/>
+      <c r="J5" s="100"/>
+      <c r="K5" s="100"/>
       <c r="R5" s="10"/>
       <c r="S5" s="10"/>
       <c r="T5" s="10"/>
@@ -6867,16 +6867,16 @@
       <c r="E6" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="F6" s="102" t="s">
+      <c r="F6" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="G6" s="103"/>
-      <c r="H6" s="104"/>
-      <c r="I6" s="102" t="s">
+      <c r="G6" s="106"/>
+      <c r="H6" s="107"/>
+      <c r="I6" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="103"/>
-      <c r="K6" s="104"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="107"/>
       <c r="L6" s="19"/>
       <c r="M6" s="19"/>
       <c r="N6" s="19"/>
@@ -6912,22 +6912,22 @@
       <c r="X7" s="10"/>
     </row>
     <row r="8" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="99" t="s">
+      <c r="A8" s="100" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="99"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="100"/>
       <c r="R8" s="10"/>
       <c r="S8" s="10"/>
       <c r="T8" s="10"/>
@@ -6952,21 +6952,21 @@
       <c r="E9" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="100" t="s">
+      <c r="F9" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="G9" s="100"/>
-      <c r="H9" s="100"/>
-      <c r="I9" s="101" t="s">
+      <c r="G9" s="101"/>
+      <c r="H9" s="101"/>
+      <c r="I9" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="J9" s="101"/>
-      <c r="K9" s="101"/>
-      <c r="L9" s="101" t="s">
+      <c r="J9" s="99"/>
+      <c r="K9" s="99"/>
+      <c r="L9" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="101"/>
-      <c r="N9" s="101"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="99"/>
       <c r="R9" s="10"/>
       <c r="S9" s="10"/>
       <c r="T9" s="10"/>
@@ -7020,19 +7020,19 @@
       <c r="X11" s="10"/>
     </row>
     <row r="12" spans="1:31" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A12" s="99" t="s">
+      <c r="A12" s="100" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="99"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="99"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="99"/>
-      <c r="K12" s="99"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
+      <c r="K12" s="100"/>
       <c r="R12" s="10"/>
       <c r="S12" s="10"/>
       <c r="T12" s="10"/>
@@ -7057,16 +7057,16 @@
       <c r="E13" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="100" t="s">
+      <c r="F13" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="G13" s="100"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="101" t="s">
+      <c r="G13" s="101"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="99" t="s">
         <v>45</v>
       </c>
-      <c r="J13" s="101"/>
-      <c r="K13" s="101"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="99"/>
       <c r="R13" s="10"/>
       <c r="S13" s="10"/>
       <c r="T13" s="10"/>
@@ -7176,19 +7176,19 @@
       <c r="X16" s="10"/>
     </row>
     <row r="17" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="99" t="s">
+      <c r="A17" s="100" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="99"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="99"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="99"/>
-      <c r="K17" s="99"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="100"/>
+      <c r="I17" s="100"/>
+      <c r="J17" s="100"/>
+      <c r="K17" s="100"/>
       <c r="R17" s="10"/>
       <c r="S17" s="10"/>
       <c r="T17" s="10"/>
@@ -7213,16 +7213,16 @@
       <c r="E18" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="100" t="s">
+      <c r="F18" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="G18" s="100"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="101" t="s">
+      <c r="G18" s="101"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="J18" s="101"/>
-      <c r="K18" s="101"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="99"/>
     </row>
     <row r="19" spans="1:24" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="17"/>
@@ -7259,19 +7259,19 @@
       <c r="X20" s="10"/>
     </row>
     <row r="21" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A21" s="99" t="s">
+      <c r="A21" s="100" t="s">
         <v>14</v>
       </c>
-      <c r="B21" s="99"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="99"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="99"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="99"/>
-      <c r="K21" s="99"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="100"/>
+      <c r="E21" s="100"/>
+      <c r="F21" s="100"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="100"/>
+      <c r="I21" s="100"/>
+      <c r="J21" s="100"/>
+      <c r="K21" s="100"/>
       <c r="R21" s="10"/>
       <c r="S21" s="10"/>
       <c r="T21" s="10"/>
@@ -7296,16 +7296,16 @@
       <c r="E22" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="100" t="s">
+      <c r="F22" s="101" t="s">
         <v>42</v>
       </c>
-      <c r="G22" s="100"/>
-      <c r="H22" s="100"/>
-      <c r="I22" s="101" t="s">
+      <c r="G22" s="101"/>
+      <c r="H22" s="101"/>
+      <c r="I22" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="J22" s="101"/>
-      <c r="K22" s="101"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="99"/>
     </row>
     <row r="23" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17">
@@ -7346,22 +7346,22 @@
     <row r="25" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="26" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:24" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="99" t="s">
+      <c r="A27" s="100" t="s">
         <v>122</v>
       </c>
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="99"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="99"/>
-      <c r="K27" s="99"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="99"/>
-      <c r="N27" s="99"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="100"/>
+      <c r="E27" s="100"/>
+      <c r="F27" s="100"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="100"/>
+      <c r="I27" s="100"/>
+      <c r="J27" s="100"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="100"/>
+      <c r="M27" s="100"/>
+      <c r="N27" s="100"/>
     </row>
     <row r="28" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
@@ -7379,44 +7379,44 @@
       <c r="E28" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="100" t="s">
+      <c r="F28" s="101" t="s">
         <v>48</v>
       </c>
-      <c r="G28" s="100"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="101" t="s">
+      <c r="G28" s="101"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="99" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="101"/>
-      <c r="K28" s="101"/>
-      <c r="L28" s="101" t="s">
+      <c r="J28" s="99"/>
+      <c r="K28" s="99"/>
+      <c r="L28" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="M28" s="101"/>
-      <c r="N28" s="101"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="99"/>
     </row>
     <row r="29" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="30" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="31" spans="1:24" s="17" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A31" s="99" t="s">
+      <c r="A31" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="99"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="99"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="99"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="99"/>
-      <c r="N31" s="99"/>
-      <c r="O31" s="99"/>
-      <c r="P31" s="99"/>
-      <c r="Q31" s="99"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="100"/>
+      <c r="E31" s="100"/>
+      <c r="F31" s="100"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="100"/>
+      <c r="I31" s="100"/>
+      <c r="J31" s="100"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="100"/>
+      <c r="M31" s="100"/>
+      <c r="N31" s="100"/>
+      <c r="O31" s="100"/>
+      <c r="P31" s="100"/>
+      <c r="Q31" s="100"/>
     </row>
     <row r="32" spans="1:24" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
@@ -7434,26 +7434,26 @@
       <c r="E32" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F32" s="102" t="s">
+      <c r="F32" s="105" t="s">
         <v>48</v>
       </c>
-      <c r="G32" s="103"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="102" t="s">
+      <c r="G32" s="106"/>
+      <c r="H32" s="107"/>
+      <c r="I32" s="105" t="s">
         <v>49</v>
       </c>
-      <c r="J32" s="103"/>
-      <c r="K32" s="104"/>
-      <c r="L32" s="101" t="s">
+      <c r="J32" s="106"/>
+      <c r="K32" s="107"/>
+      <c r="L32" s="99" t="s">
         <v>125</v>
       </c>
-      <c r="M32" s="101"/>
-      <c r="N32" s="101"/>
-      <c r="O32" s="101" t="s">
+      <c r="M32" s="99"/>
+      <c r="N32" s="99"/>
+      <c r="O32" s="99" t="s">
         <v>126</v>
       </c>
-      <c r="P32" s="101"/>
-      <c r="Q32" s="101"/>
+      <c r="P32" s="99"/>
+      <c r="Q32" s="99"/>
       <c r="T32" s="52"/>
       <c r="U32" s="52"/>
       <c r="V32" s="52"/>
@@ -7521,14 +7521,14 @@
     </row>
     <row r="34" spans="1:24" s="10" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="35" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A35" s="99" t="s">
+      <c r="A35" s="100" t="s">
         <v>15</v>
       </c>
-      <c r="B35" s="99"/>
-      <c r="C35" s="99"/>
-      <c r="D35" s="99"/>
-      <c r="E35" s="99"/>
-      <c r="F35" s="99"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
       <c r="G35" s="11"/>
       <c r="H35" s="11"/>
       <c r="I35" s="11"/>
@@ -7602,12 +7602,12 @@
       <c r="X38" s="10"/>
     </row>
     <row r="39" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A39" s="99" t="s">
+      <c r="A39" s="100" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="99"/>
-      <c r="C39" s="99"/>
-      <c r="D39" s="99"/>
+      <c r="B39" s="100"/>
+      <c r="C39" s="100"/>
+      <c r="D39" s="100"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
@@ -7679,15 +7679,15 @@
       <c r="K42" s="11"/>
     </row>
     <row r="43" spans="1:24" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A43" s="105" t="s">
+      <c r="A43" s="102" t="s">
         <v>20</v>
       </c>
-      <c r="B43" s="106"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="106"/>
-      <c r="E43" s="106"/>
-      <c r="F43" s="106"/>
-      <c r="G43" s="107"/>
+      <c r="B43" s="103"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="103"/>
+      <c r="E43" s="103"/>
+      <c r="F43" s="103"/>
+      <c r="G43" s="104"/>
       <c r="H43" s="12"/>
       <c r="I43" s="12"/>
       <c r="J43" s="10"/>
@@ -7707,11 +7707,11 @@
       <c r="D44" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="101" t="s">
+      <c r="E44" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="F44" s="101"/>
-      <c r="G44" s="101"/>
+      <c r="F44" s="99"/>
+      <c r="G44" s="99"/>
       <c r="H44" s="12"/>
       <c r="I44" s="12"/>
       <c r="J44" s="10"/>
@@ -8107,6 +8107,21 @@
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="A5:K5"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="A12:K12"/>
+    <mergeCell ref="F13:H13"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="A17:K17"/>
+    <mergeCell ref="F18:H18"/>
+    <mergeCell ref="I18:K18"/>
     <mergeCell ref="E44:G44"/>
     <mergeCell ref="A21:K21"/>
     <mergeCell ref="F22:H22"/>
@@ -8123,21 +8138,6 @@
     <mergeCell ref="I32:K32"/>
     <mergeCell ref="L32:N32"/>
     <mergeCell ref="O32:Q32"/>
-    <mergeCell ref="A12:K12"/>
-    <mergeCell ref="F13:H13"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="A17:K17"/>
-    <mergeCell ref="F18:H18"/>
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="A8:N8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="A5:K5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="list" operator="equal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B20" xr:uid="{00000000-0002-0000-0100-000001000000}">
@@ -8158,8 +8158,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4658AC4-6667-4045-B0FE-42E281567C35}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8206,11 +8206,11 @@
       <c r="E2" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="F2" s="101" t="s">
+      <c r="F2" s="99" t="s">
         <v>51</v>
       </c>
-      <c r="G2" s="101"/>
-      <c r="H2" s="101"/>
+      <c r="G2" s="99"/>
+      <c r="H2" s="99"/>
       <c r="I2" s="59" t="s">
         <v>250</v>
       </c>
@@ -8222,9 +8222,6 @@
       </c>
     </row>
     <row r="3" spans="1:11" s="37" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="37" t="s">
-        <v>134</v>
-      </c>
       <c r="D3" s="37">
         <v>4</v>
       </c>
@@ -8321,35 +8318,35 @@
       <c r="S1" s="109"/>
     </row>
     <row r="2" spans="1:33" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="99"/>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
-      <c r="H2" s="99"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="99"/>
-      <c r="L2" s="99"/>
-      <c r="M2" s="99"/>
-      <c r="N2" s="126" t="s">
+      <c r="A2" s="100"/>
+      <c r="B2" s="100"/>
+      <c r="C2" s="100"/>
+      <c r="D2" s="100"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="100"/>
+      <c r="H2" s="100"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="100"/>
+      <c r="L2" s="100"/>
+      <c r="M2" s="100"/>
+      <c r="N2" s="112" t="s">
         <v>253</v>
       </c>
-      <c r="O2" s="127"/>
-      <c r="P2" s="127"/>
-      <c r="Q2" s="127"/>
-      <c r="R2" s="127"/>
-      <c r="S2" s="128"/>
-      <c r="AB2" s="116" t="s">
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
+      <c r="S2" s="114"/>
+      <c r="AB2" s="118" t="s">
         <v>119</v>
       </c>
-      <c r="AC2" s="117"/>
-      <c r="AD2" s="117"/>
-      <c r="AE2" s="117"/>
-      <c r="AF2" s="117"/>
-      <c r="AG2" s="118"/>
+      <c r="AC2" s="119"/>
+      <c r="AD2" s="119"/>
+      <c r="AE2" s="119"/>
+      <c r="AF2" s="119"/>
+      <c r="AG2" s="120"/>
     </row>
     <row r="3" spans="1:33" s="28" customFormat="1" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="60" t="s">
@@ -8367,16 +8364,16 @@
       <c r="E3" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="129" t="s">
+      <c r="F3" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="130"/>
-      <c r="H3" s="131"/>
-      <c r="I3" s="110" t="s">
+      <c r="G3" s="128"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="111"/>
-      <c r="K3" s="112"/>
+      <c r="J3" s="130"/>
+      <c r="K3" s="131"/>
       <c r="L3" s="53" t="s">
         <v>245</v>
       </c>
@@ -8399,12 +8396,12 @@
         <v>118</v>
       </c>
       <c r="S3" s="132"/>
-      <c r="AB3" s="119"/>
-      <c r="AC3" s="120"/>
-      <c r="AD3" s="120"/>
-      <c r="AE3" s="120"/>
-      <c r="AF3" s="120"/>
-      <c r="AG3" s="121"/>
+      <c r="AB3" s="121"/>
+      <c r="AC3" s="122"/>
+      <c r="AD3" s="122"/>
+      <c r="AE3" s="122"/>
+      <c r="AF3" s="122"/>
+      <c r="AG3" s="123"/>
     </row>
     <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B4" s="37" t="s">
@@ -8450,12 +8447,12 @@
       <c r="O4" s="17"/>
       <c r="P4" s="17"/>
       <c r="Q4" s="17"/>
-      <c r="AB4" s="119"/>
-      <c r="AC4" s="120"/>
-      <c r="AD4" s="120"/>
-      <c r="AE4" s="120"/>
-      <c r="AF4" s="120"/>
-      <c r="AG4" s="121"/>
+      <c r="AB4" s="121"/>
+      <c r="AC4" s="122"/>
+      <c r="AD4" s="122"/>
+      <c r="AE4" s="122"/>
+      <c r="AF4" s="122"/>
+      <c r="AG4" s="123"/>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B5" s="37" t="s">
@@ -8498,20 +8495,20 @@
         <f>400000</f>
         <v>400000</v>
       </c>
-      <c r="AB5" s="119"/>
-      <c r="AC5" s="120"/>
-      <c r="AD5" s="120"/>
-      <c r="AE5" s="120"/>
-      <c r="AF5" s="120"/>
-      <c r="AG5" s="121"/>
+      <c r="AB5" s="121"/>
+      <c r="AC5" s="122"/>
+      <c r="AD5" s="122"/>
+      <c r="AE5" s="122"/>
+      <c r="AF5" s="122"/>
+      <c r="AG5" s="123"/>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="AB6" s="119"/>
-      <c r="AC6" s="120"/>
-      <c r="AD6" s="120"/>
-      <c r="AE6" s="120"/>
-      <c r="AF6" s="120"/>
-      <c r="AG6" s="121"/>
+      <c r="AB6" s="121"/>
+      <c r="AC6" s="122"/>
+      <c r="AD6" s="122"/>
+      <c r="AE6" s="122"/>
+      <c r="AF6" s="122"/>
+      <c r="AG6" s="123"/>
     </row>
     <row r="7" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="108" t="s">
@@ -8534,40 +8531,40 @@
       <c r="P7" s="109"/>
       <c r="Q7" s="109"/>
       <c r="R7" s="109"/>
-      <c r="AB7" s="119"/>
-      <c r="AC7" s="120"/>
-      <c r="AD7" s="120"/>
-      <c r="AE7" s="120"/>
-      <c r="AF7" s="120"/>
-      <c r="AG7" s="121"/>
+      <c r="AB7" s="121"/>
+      <c r="AC7" s="122"/>
+      <c r="AD7" s="122"/>
+      <c r="AE7" s="122"/>
+      <c r="AF7" s="122"/>
+      <c r="AG7" s="123"/>
     </row>
     <row r="8" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A8" s="99"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="99"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="99"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="99"/>
-      <c r="K8" s="99"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="99"/>
-      <c r="N8" s="125" t="s">
+      <c r="A8" s="100"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="100"/>
+      <c r="I8" s="100"/>
+      <c r="J8" s="100"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="100"/>
+      <c r="M8" s="100"/>
+      <c r="N8" s="127" t="s">
         <v>254</v>
       </c>
-      <c r="O8" s="125"/>
-      <c r="P8" s="125"/>
-      <c r="Q8" s="125"/>
-      <c r="R8" s="125"/>
-      <c r="AB8" s="119"/>
-      <c r="AC8" s="120"/>
-      <c r="AD8" s="120"/>
-      <c r="AE8" s="120"/>
-      <c r="AF8" s="120"/>
-      <c r="AG8" s="121"/>
+      <c r="O8" s="127"/>
+      <c r="P8" s="127"/>
+      <c r="Q8" s="127"/>
+      <c r="R8" s="127"/>
+      <c r="AB8" s="121"/>
+      <c r="AC8" s="122"/>
+      <c r="AD8" s="122"/>
+      <c r="AE8" s="122"/>
+      <c r="AF8" s="122"/>
+      <c r="AG8" s="123"/>
     </row>
     <row r="9" spans="1:33" s="28" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="60" t="s">
@@ -8585,16 +8582,16 @@
       <c r="E9" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="129" t="s">
+      <c r="F9" s="110" t="s">
         <v>48</v>
       </c>
-      <c r="G9" s="130"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="110" t="s">
+      <c r="G9" s="128"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="111"/>
-      <c r="K9" s="112"/>
+      <c r="J9" s="130"/>
+      <c r="K9" s="131"/>
       <c r="L9" s="31" t="s">
         <v>112</v>
       </c>
@@ -8610,16 +8607,16 @@
       <c r="P9" s="33" t="s">
         <v>116</v>
       </c>
-      <c r="Q9" s="129" t="s">
+      <c r="Q9" s="110" t="s">
         <v>117</v>
       </c>
-      <c r="R9" s="131"/>
-      <c r="AB9" s="119"/>
-      <c r="AC9" s="120"/>
-      <c r="AD9" s="120"/>
-      <c r="AE9" s="120"/>
-      <c r="AF9" s="120"/>
-      <c r="AG9" s="121"/>
+      <c r="R9" s="111"/>
+      <c r="AB9" s="121"/>
+      <c r="AC9" s="122"/>
+      <c r="AD9" s="122"/>
+      <c r="AE9" s="122"/>
+      <c r="AF9" s="122"/>
+      <c r="AG9" s="123"/>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="37"/>
@@ -8660,12 +8657,12 @@
         <v>6000</v>
       </c>
       <c r="M10" s="23"/>
-      <c r="AB10" s="119"/>
-      <c r="AC10" s="120"/>
-      <c r="AD10" s="120"/>
-      <c r="AE10" s="120"/>
-      <c r="AF10" s="120"/>
-      <c r="AG10" s="121"/>
+      <c r="AB10" s="121"/>
+      <c r="AC10" s="122"/>
+      <c r="AD10" s="122"/>
+      <c r="AE10" s="122"/>
+      <c r="AF10" s="122"/>
+      <c r="AG10" s="123"/>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="37"/>
@@ -8706,21 +8703,21 @@
         <f>10000</f>
         <v>10000</v>
       </c>
-      <c r="AB11" s="119"/>
-      <c r="AC11" s="120"/>
-      <c r="AD11" s="120"/>
-      <c r="AE11" s="120"/>
-      <c r="AF11" s="120"/>
-      <c r="AG11" s="121"/>
+      <c r="AB11" s="121"/>
+      <c r="AC11" s="122"/>
+      <c r="AD11" s="122"/>
+      <c r="AE11" s="122"/>
+      <c r="AF11" s="122"/>
+      <c r="AG11" s="123"/>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="Q12" s="37"/>
-      <c r="AB12" s="119"/>
-      <c r="AC12" s="120"/>
-      <c r="AD12" s="120"/>
-      <c r="AE12" s="120"/>
-      <c r="AF12" s="120"/>
-      <c r="AG12" s="121"/>
+      <c r="AB12" s="121"/>
+      <c r="AC12" s="122"/>
+      <c r="AD12" s="122"/>
+      <c r="AE12" s="122"/>
+      <c r="AF12" s="122"/>
+      <c r="AG12" s="123"/>
     </row>
     <row r="13" spans="1:33" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A13" s="108" t="s">
@@ -8750,41 +8747,41 @@
       <c r="W13" s="109"/>
       <c r="X13" s="109"/>
       <c r="Y13" s="109"/>
-      <c r="AB13" s="122"/>
-      <c r="AC13" s="123"/>
-      <c r="AD13" s="123"/>
-      <c r="AE13" s="123"/>
-      <c r="AF13" s="123"/>
-      <c r="AG13" s="124"/>
+      <c r="AB13" s="124"/>
+      <c r="AC13" s="125"/>
+      <c r="AD13" s="125"/>
+      <c r="AE13" s="125"/>
+      <c r="AF13" s="125"/>
+      <c r="AG13" s="126"/>
     </row>
     <row r="14" spans="1:33" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="105"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="106"/>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
-      <c r="J14" s="106"/>
-      <c r="K14" s="106"/>
-      <c r="L14" s="106"/>
-      <c r="M14" s="106"/>
-      <c r="N14" s="106"/>
-      <c r="O14" s="106"/>
-      <c r="P14" s="106"/>
-      <c r="Q14" s="106"/>
-      <c r="R14" s="106"/>
-      <c r="S14" s="107"/>
-      <c r="T14" s="126" t="s">
+      <c r="A14" s="102"/>
+      <c r="B14" s="103"/>
+      <c r="C14" s="103"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="103"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="103"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="103"/>
+      <c r="L14" s="103"/>
+      <c r="M14" s="103"/>
+      <c r="N14" s="103"/>
+      <c r="O14" s="103"/>
+      <c r="P14" s="103"/>
+      <c r="Q14" s="103"/>
+      <c r="R14" s="103"/>
+      <c r="S14" s="104"/>
+      <c r="T14" s="112" t="s">
         <v>255</v>
       </c>
-      <c r="U14" s="127"/>
-      <c r="V14" s="127"/>
-      <c r="W14" s="127"/>
-      <c r="X14" s="127"/>
-      <c r="Y14" s="128"/>
+      <c r="U14" s="113"/>
+      <c r="V14" s="113"/>
+      <c r="W14" s="113"/>
+      <c r="X14" s="113"/>
+      <c r="Y14" s="114"/>
       <c r="Z14" s="61"/>
       <c r="AA14" s="61"/>
     </row>
@@ -8804,26 +8801,26 @@
       <c r="E15" s="60" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="92" t="s">
+      <c r="F15" s="68" t="s">
         <v>256</v>
       </c>
-      <c r="G15" s="92"/>
-      <c r="H15" s="92"/>
-      <c r="I15" s="110" t="s">
+      <c r="G15" s="68"/>
+      <c r="H15" s="68"/>
+      <c r="I15" s="129" t="s">
         <v>257</v>
       </c>
-      <c r="J15" s="111"/>
-      <c r="K15" s="112"/>
-      <c r="L15" s="113" t="s">
+      <c r="J15" s="130"/>
+      <c r="K15" s="131"/>
+      <c r="L15" s="115" t="s">
         <v>258</v>
       </c>
-      <c r="M15" s="114"/>
-      <c r="N15" s="115"/>
-      <c r="O15" s="113" t="s">
+      <c r="M15" s="116"/>
+      <c r="N15" s="117"/>
+      <c r="O15" s="115" t="s">
         <v>259</v>
       </c>
-      <c r="P15" s="114"/>
-      <c r="Q15" s="115"/>
+      <c r="P15" s="116"/>
+      <c r="Q15" s="117"/>
       <c r="R15" s="31" t="s">
         <v>73</v>
       </c>
@@ -8842,10 +8839,10 @@
       <c r="W15" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="X15" s="129" t="s">
+      <c r="X15" s="110" t="s">
         <v>118</v>
       </c>
-      <c r="Y15" s="131"/>
+      <c r="Y15" s="111"/>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="37"/>
@@ -8924,14 +8921,14 @@
       <c r="I19" s="63"/>
       <c r="J19" s="63"/>
       <c r="K19" s="63"/>
-      <c r="L19" s="126" t="s">
+      <c r="L19" s="112" t="s">
         <v>253</v>
       </c>
-      <c r="M19" s="127"/>
-      <c r="N19" s="127"/>
-      <c r="O19" s="127"/>
-      <c r="P19" s="127"/>
-      <c r="Q19" s="128"/>
+      <c r="M19" s="113"/>
+      <c r="N19" s="113"/>
+      <c r="O19" s="113"/>
+      <c r="P19" s="113"/>
+      <c r="Q19" s="114"/>
     </row>
     <row r="20" spans="1:20" s="28" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="58" t="s">
@@ -8949,16 +8946,16 @@
       <c r="E20" s="58" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="92" t="s">
+      <c r="F20" s="68" t="s">
         <v>21</v>
       </c>
-      <c r="G20" s="92"/>
-      <c r="H20" s="92"/>
-      <c r="I20" s="113" t="s">
+      <c r="G20" s="68"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="115" t="s">
         <v>155</v>
       </c>
-      <c r="J20" s="114"/>
-      <c r="K20" s="115"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="117"/>
       <c r="L20" s="60" t="s">
         <v>113</v>
       </c>
@@ -8971,10 +8968,10 @@
       <c r="O20" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="P20" s="129" t="s">
+      <c r="P20" s="110" t="s">
         <v>118</v>
       </c>
-      <c r="Q20" s="131"/>
+      <c r="Q20" s="111"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="37"/>
@@ -9028,12 +9025,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="X15:Y15"/>
-    <mergeCell ref="A18:Q18"/>
-    <mergeCell ref="L19:Q19"/>
-    <mergeCell ref="F20:H20"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="P20:Q20"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="L15:N15"/>
+    <mergeCell ref="O15:Q15"/>
     <mergeCell ref="AB2:AG13"/>
     <mergeCell ref="A8:M8"/>
     <mergeCell ref="N8:R8"/>
@@ -9049,11 +9045,12 @@
     <mergeCell ref="R3:S3"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="N2:S2"/>
-    <mergeCell ref="A1:S1"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="L15:N15"/>
-    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="X15:Y15"/>
+    <mergeCell ref="A18:Q18"/>
+    <mergeCell ref="L19:Q19"/>
+    <mergeCell ref="F20:H20"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="P20:Q20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9076,21 +9073,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="99" t="s">
+      <c r="A1" s="100" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="99"/>
-      <c r="C1" s="99"/>
-      <c r="F1" s="72" t="s">
+      <c r="B1" s="100"/>
+      <c r="C1" s="100"/>
+      <c r="F1" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="G1" s="74"/>
-      <c r="I1" s="72" t="s">
+      <c r="G1" s="93"/>
+      <c r="I1" s="91" t="s">
         <v>234</v>
       </c>
-      <c r="J1" s="73"/>
-      <c r="K1" s="73"/>
-      <c r="L1" s="74"/>
+      <c r="J1" s="92"/>
+      <c r="K1" s="92"/>
+      <c r="L1" s="93"/>
     </row>
     <row r="2" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="48" t="s">
